--- a/02workspace/03genExcelToView/Output/test1.xlsx
+++ b/02workspace/03genExcelToView/Output/test1.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="数据集1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="数据集2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="数据集3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="n数据集1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="n数据集2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="n数据集3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -152,6 +152,447 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>n数据集1报告</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'n数据集1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'n数据集1'!$A$2:$A$4</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'n数据集1'!$B$2:$B$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'n数据集1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'n数据集1'!$A$2:$A$4</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'n数据集1'!$C$2:$C$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>n数据集2报告</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'n数据集2'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'n数据集2'!$A$2:$A$3</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'n数据集2'!$B$2:$B$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>n数据集3报告</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'n数据集3'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'n数据集3'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'n数据集3'!$B$2:$B$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'n数据集3'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'n数据集3'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'n数据集3'!$C$2:$C$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'n数据集3'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'n数据集3'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'n数据集3'!$D$2:$D$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,12 +879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,13 +930,27 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>版本3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -537,11 +992,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -637,5 +1093,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/02workspace/03genExcelToView/Output/test1.xlsx
+++ b/02workspace/03genExcelToView/Output/test1.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="n数据集1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="n数据集2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="n数据集3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="汇总表格" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="数据集1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="数据集2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="数据集3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,13 +28,26 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000B0F0"/>
+        <bgColor rgb="0000B0F0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -71,16 +85,20 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -166,7 +184,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>n数据集1报告</a:t>
+              <a:t>汇总良率报告 单位(%)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -180,30 +198,30 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'n数据集1'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'n数据集1'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'n数据集1'!$B$2:$B$4</f>
+              <f>'汇总表格'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -212,30 +230,318 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'n数据集1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'n数据集1'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'n数据集1'!$C$2:$C$4</f>
+              <f>'汇总表格'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$C$2:$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$D$2:$D$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$E$2:$E$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$F$2:$F$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$G$2:$G$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$H$2:$H$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$I$2:$I$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$J$2:$J$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$K$2:$K$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="10"/>
+          <order val="10"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!L1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$L$2:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -257,6 +563,7 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="1"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -286,7 +593,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>n数据集2报告</a:t>
+              <a:t>汇总时间报告 单位时间</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -300,118 +607,30 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'n数据集2'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'n数据集2'!$A$2:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'n数据集2'!$B$2:$B$3</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>n数据集3报告</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'n数据集3'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'n数据集3'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'n数据集3'!$B$2:$B$5</f>
+              <f>'汇总表格'!B8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$B$9:$B$13</f>
             </numRef>
           </val>
         </ser>
@@ -420,30 +639,30 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'n数据集3'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'n数据集3'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'n数据集3'!$C$2:$C$5</f>
+              <f>'汇总表格'!C8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$C$9:$C$13</f>
             </numRef>
           </val>
         </ser>
@@ -452,30 +671,286 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'n数据集3'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'n数据集3'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'n数据集3'!$D$2:$D$5</f>
+              <f>'汇总表格'!D8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$D$9:$D$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!E8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$E$9:$E$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!F8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$F$9:$F$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!G8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$G$9:$G$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!H8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$H$9:$H$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!I8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$I$9:$I$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!J8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$J$9:$J$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!K8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$K$9:$K$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="10"/>
+          <order val="10"/>
+          <tx>
+            <strRef>
+              <f>'汇总表格'!L8</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'汇总表格'!$A$8:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'汇总表格'!$L$9:$L$13</f>
             </numRef>
           </val>
         </ser>
@@ -520,7 +995,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>17</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -538,55 +1013,23 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
+        <cNvPr id="2" name="Chart 2"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -884,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,206 +1336,548 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>粗铝线焊点宽度</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>粗铝线焊点高度</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>良率</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>EP2303003GMK125</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>EP2303003GMK126</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>EP2304005GMK042</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>EP2304005GMK048</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>EP2302093GMK115</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>EP2302093GMK141</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>EP2302093GMK142</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>EP2303009GMK028</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>EP2303009GMK125</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>EP2303016GMK020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>EP2303011GMK080</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>版本1</t>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>20230522</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>0.8946999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>版本2</t>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>20230525</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>0.8946999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4211</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>版本3</t>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>20230525-1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0.8946999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4211</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>20230529</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8946999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8946999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8421</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>EP2303003GMK125</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>EP2303003GMK126</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>EP2304005GMK042</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>EP2304005GMK048</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>EP2302093GMK115</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>EP2302093GMK141</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>EP2302093GMK142</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>EP2303009GMK028</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>EP2303009GMK125</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>EP2303016GMK020</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>EP2303011GMK080</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>20230522</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>20230525</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>20230525-1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>20230529</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11.67</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="D1" r:id="rId3"/>
+    <hyperlink ref="E1" r:id="rId4"/>
+    <hyperlink ref="F1" r:id="rId5"/>
+    <hyperlink ref="G1" r:id="rId6"/>
+    <hyperlink ref="H1" r:id="rId7"/>
+    <hyperlink ref="I1" r:id="rId8"/>
+    <hyperlink ref="J1" r:id="rId9"/>
+    <hyperlink ref="K1" r:id="rId10"/>
+    <hyperlink ref="L1" r:id="rId11"/>
+    <hyperlink ref="B8" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="E8" r:id="rId15"/>
+    <hyperlink ref="F8" r:id="rId16"/>
+    <hyperlink ref="G8" r:id="rId17"/>
+    <hyperlink ref="H8" r:id="rId18"/>
+    <hyperlink ref="I8" r:id="rId19"/>
+    <hyperlink ref="J8" r:id="rId20"/>
+    <hyperlink ref="K8" r:id="rId21"/>
+    <hyperlink ref="L8" r:id="rId22"/>
+    <hyperlink ref="A9" r:id="rId23"/>
+    <hyperlink ref="A10" r:id="rId24"/>
+    <hyperlink ref="A11" r:id="rId25"/>
+    <hyperlink ref="A12" r:id="rId26"/>
+    <hyperlink ref="A13" r:id="rId27"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>测试测试</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>版本1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>版本2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>测试3</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>测试4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>测试5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>版本1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33</v>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>版本2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>版本3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>35</v>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>版本4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>36</v>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>